--- a/Worksheets/01_FuncionalidadePix.xlsx
+++ b/Worksheets/01_FuncionalidadePix.xlsx
@@ -747,7 +747,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -809,7 +809,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Hyperlink 1" xfId="20"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF7030A0"/>
@@ -857,106 +857,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF203764"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF548235"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF203764"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF548235"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF203764"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF548235"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF203764"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF548235"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF203764"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF548235"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1331,7 +1231,7 @@
       </c>
       <c r="H2" s="10" t="n">
         <f aca="false">(COUNTIF('2.1'!B:B, "Testado"))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,7 +1249,7 @@
       </c>
       <c r="H3" s="13" t="n">
         <f aca="false">(COUNTIF('2.1'!B:B, "A testar"))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1326,7 @@
       </c>
       <c r="H8" s="24" t="n">
         <f aca="false">H2/H6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
@@ -1538,7 +1438,7 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1603,7 +1503,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>33</v>
@@ -1623,7 +1523,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>38</v>
@@ -1643,7 +1543,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>42</v>
@@ -1663,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>45</v>
@@ -1683,7 +1583,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>49</v>
@@ -1703,7 +1603,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>52</v>
@@ -1723,7 +1623,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>55</v>
@@ -1743,7 +1643,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>59</v>
@@ -1763,7 +1663,7 @@
         <v>61</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>62</v>
@@ -1783,7 +1683,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>66</v>
@@ -1803,7 +1703,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>69</v>
@@ -1823,7 +1723,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>72</v>
@@ -2431,12 +2331,12 @@
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B4:B15">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"Impeditivo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B15">
+  <conditionalFormatting sqref="B4:B15">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"A testar"</formula>
     </cfRule>
@@ -2444,7 +2344,7 @@
       <formula>"testado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+  <conditionalFormatting sqref="B3">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A testar"</formula>
     </cfRule>
@@ -2452,7 +2352,7 @@
       <formula>"testado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B6:B1048576">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"A testar"</formula>
     </cfRule>
@@ -2460,51 +2360,11 @@
       <formula>"testado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="B1:B2">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"A testar"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>"testado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>"A testar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>"testado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B8">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>"A testar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>"testado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>"A testar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"testado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B1048576">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>"A testar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>"testado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>"A testar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>"testado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Worksheets/01_FuncionalidadePix.xlsx
+++ b/Worksheets/01_FuncionalidadePix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="1" state="visible" r:id="rId3"/>
@@ -1183,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1437,7 +1437,7 @@
   </sheetPr>
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/Worksheets/01_FuncionalidadePix.xlsx
+++ b/Worksheets/01_FuncionalidadePix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t xml:space="preserve">Planejamento Do Projeto</t>
   </si>
@@ -205,45 +205,6 @@
   </si>
   <si>
     <t xml:space="preserve">Validar persistência do status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se notificação ao consumidor (e-mail e in-app)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sim (Backend + Mock SMTP) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar envio correto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se visualização no histórico com status atualizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmar dados persistidos corretamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se tentativa de pagamento com chave inválida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validação da chave PIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se garantia de que boleto ainda está disponível</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste de não-regressão</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1144,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1231,7 +1192,7 @@
       </c>
       <c r="H2" s="10" t="n">
         <f aca="false">(COUNTIF('2.1'!B:B, "Testado"))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,7 +1264,7 @@
       </c>
       <c r="H6" s="18" t="n">
         <f aca="false">(COUNTIF('2.1'!A:A,"TC*"))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,9 +1396,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1659,84 +1620,26 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>64</v>
-      </c>
+      <c r="A12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>67</v>
-      </c>
+      <c r="A13" s="48"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="A14" s="48"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>73</v>
-      </c>
+      <c r="A15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48"/>
@@ -1745,63 +1648,65 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="48"/>
-      <c r="C17" s="50"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48"/>
-      <c r="C18" s="51"/>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="48"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="48"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="48"/>
-      <c r="C21" s="52"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48"/>
-      <c r="C23" s="53"/>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48"/>
-      <c r="C24" s="53"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="48"/>
-      <c r="C25" s="51"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="48"/>
-      <c r="C26" s="53"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="48"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
     </row>
@@ -1813,13 +1718,11 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48"/>
-      <c r="C29" s="53"/>
       <c r="D29" s="49"/>
       <c r="E29" s="49"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="48"/>
-      <c r="C30" s="54"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
     </row>
@@ -1831,7 +1734,6 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="48"/>
-      <c r="C32" s="51"/>
       <c r="D32" s="49"/>
       <c r="E32" s="49"/>
     </row>
@@ -1842,17 +1744,18 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="48"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="49"/>
       <c r="E34" s="49"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="48"/>
-      <c r="C35" s="51"/>
       <c r="D35" s="49"/>
       <c r="E35" s="49"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="48"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="49"/>
       <c r="E36" s="49"/>
     </row>
@@ -1863,7 +1766,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="48"/>
-      <c r="C38" s="51"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="49"/>
       <c r="E38" s="49"/>
     </row>
@@ -1874,7 +1777,6 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="48"/>
-      <c r="C40" s="51"/>
       <c r="D40" s="49"/>
       <c r="E40" s="49"/>
     </row>
@@ -1885,7 +1787,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="48"/>
-      <c r="C42" s="50"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="49"/>
       <c r="E42" s="49"/>
     </row>
@@ -1901,12 +1803,12 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="48"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="49"/>
       <c r="E45" s="49"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="48"/>
-      <c r="C46" s="51"/>
       <c r="D46" s="49"/>
       <c r="E46" s="49"/>
     </row>
@@ -1922,7 +1824,6 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="48"/>
-      <c r="C49" s="51"/>
       <c r="D49" s="49"/>
       <c r="E49" s="49"/>
     </row>
@@ -1933,11 +1834,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="48"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="49"/>
       <c r="E51" s="49"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="48"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
     </row>
@@ -1953,13 +1856,11 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="48"/>
-      <c r="C55" s="51"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="48"/>
-      <c r="C56" s="53"/>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
     </row>
@@ -1970,11 +1871,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="48"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="48"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="49"/>
       <c r="E59" s="49"/>
     </row>
@@ -1990,13 +1893,11 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="48"/>
-      <c r="C62" s="51"/>
       <c r="D62" s="49"/>
       <c r="E62" s="49"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="48"/>
-      <c r="C63" s="53"/>
       <c r="D63" s="49"/>
       <c r="E63" s="49"/>
     </row>
@@ -2007,35 +1908,38 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="48"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="49"/>
       <c r="E65" s="49"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="48"/>
       <c r="C69" s="51"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="48"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="48"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="48"/>
@@ -2045,54 +1949,51 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="48"/>
-      <c r="C73" s="51"/>
+      <c r="C73" s="50"/>
       <c r="D73" s="55"/>
       <c r="E73" s="55"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="48"/>
-      <c r="C74" s="53"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="55"/>
       <c r="E74" s="55"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="48"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="48"/>
-      <c r="C76" s="51"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="48"/>
-      <c r="C77" s="50"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="48"/>
-      <c r="C78" s="51"/>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="48"/>
-      <c r="C79" s="51"/>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="48"/>
-      <c r="C80" s="53"/>
       <c r="D80" s="55"/>
       <c r="E80" s="55"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="48"/>
-      <c r="C81" s="53"/>
       <c r="D81" s="55"/>
       <c r="E81" s="55"/>
     </row>
@@ -2113,6 +2014,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="48"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
     </row>
@@ -2128,12 +2030,12 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="48"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="55"/>
       <c r="E88" s="55"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="48"/>
-      <c r="C89" s="51"/>
       <c r="D89" s="55"/>
       <c r="E89" s="55"/>
     </row>
@@ -2149,7 +2051,6 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="48"/>
-      <c r="C92" s="51"/>
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
     </row>
@@ -2235,8 +2136,6 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="48"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="48"/>
@@ -2255,14 +2154,19 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="48"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="55"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="48"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="55"/>
       <c r="E114" s="55"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="48"/>
+      <c r="C115" s="53"/>
       <c r="D115" s="55"/>
       <c r="E115" s="55"/>
     </row>
@@ -2273,51 +2177,32 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="48"/>
-      <c r="C117" s="51"/>
+      <c r="C117" s="56"/>
       <c r="D117" s="55"/>
       <c r="E117" s="55"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="48"/>
-      <c r="C118" s="51"/>
       <c r="D118" s="55"/>
       <c r="E118" s="55"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="48"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="55"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="48"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="55"/>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="48"/>
-      <c r="C121" s="56"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="48"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="48"/>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="48"/>
-    </row>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D15 D4:D15">
+  <conditionalFormatting sqref="D4:D11">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Backlog"</formula>
     </cfRule>
@@ -2331,12 +2216,10 @@
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B15">
+  <conditionalFormatting sqref="B4:B11">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"Impeditivo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B15">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"A testar"</formula>
     </cfRule>
@@ -2369,11 +2252,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B15" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B11" type="list">
       <formula1>"A testar,Testado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D15" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D11" type="list">
       <formula1>"Não,Sim,Cancelado,Backlog"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Worksheets/01_FuncionalidadePix.xlsx
+++ b/Worksheets/01_FuncionalidadePix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="1" state="visible" r:id="rId3"/>
@@ -1144,8 +1144,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1398,8 +1398,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
